--- a/ZezeJava/ZezeJavaTest/src/UnitTest/Zeze/Game/tasks_config.xlsx
+++ b/ZezeJava/ZezeJavaTest/src/UnitTest/Zeze/Game/tasks_config.xlsx
@@ -362,7 +362,7 @@
   <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/ZezeJava/ZezeJavaTest/src/UnitTest/Zeze/Game/tasks_config.xlsx
+++ b/ZezeJava/ZezeJavaTest/src/UnitTest/Zeze/Game/tasks_config.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="15">
   <si>
     <t>Task ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -34,6 +34,50 @@
   </si>
   <si>
     <t>Task Description</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务一</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务二</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务三</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务四</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务五</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务六</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务七</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务八</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务九</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务十</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>描述……</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -359,14 +403,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="11.25" customWidth="1"/>
+    <col min="2" max="2" width="15.625" customWidth="1"/>
+    <col min="3" max="3" width="15.875" customWidth="1"/>
+    <col min="4" max="4" width="16.375" customWidth="1"/>
     <col min="6" max="6" width="9" customWidth="1"/>
   </cols>
   <sheetData>
@@ -384,6 +432,146 @@
         <v>3</v>
       </c>
     </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7">
+        <v>3</v>
+      </c>
+      <c r="D7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10">
+        <v>3</v>
+      </c>
+      <c r="D10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
